--- a/TP03/Delitos2011.xlsx
+++ b/TP03/Delitos2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ciencia_de_datos\TP03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5562221A-C78E-4012-9E61-70A52F909BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49F00E1-EBC7-431D-A43E-0D6416E95F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D3C00A9A-036F-470B-886E-0B605577CF21}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Provincia</t>
   </si>
   <si>
-    <t>Canton</t>
-  </si>
-  <si>
     <t>Distrito</t>
   </si>
   <si>
@@ -1235,6 +1232,9 @@
   </si>
   <si>
     <t>Count of SubDelito</t>
+  </si>
+  <si>
+    <t>Cantón</t>
   </si>
 </sst>
 </file>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB56C18-FBCA-45D5-9041-B03DE31C45E9}">
   <dimension ref="A1:D460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E403" sqref="E403"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,24 +2114,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>990</v>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3">
         <v>51</v>
@@ -2153,13 +2153,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>155</v>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5">
         <v>125</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6">
         <v>58</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>169</v>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>28</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9">
         <v>213</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>90</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>401</v>
@@ -2265,13 +2265,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>153</v>
@@ -2279,13 +2279,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>97</v>
@@ -2293,13 +2293,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>72</v>
@@ -2307,13 +2307,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>107</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D17">
         <v>11</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -2363,13 +2363,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>26</v>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -2391,13 +2391,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -2405,13 +2405,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D22">
         <v>11</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24">
         <v>211</v>
@@ -2447,13 +2447,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25">
         <v>48</v>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26">
         <v>37</v>
@@ -2475,13 +2475,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>53</v>
@@ -2489,13 +2489,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28">
         <v>43</v>
@@ -2503,13 +2503,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29">
         <v>43</v>
@@ -2517,13 +2517,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" t="s">
         <v>192</v>
-      </c>
-      <c r="C32" t="s">
-        <v>193</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -2559,13 +2559,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>70</v>
@@ -2573,13 +2573,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D35">
         <v>25</v>
@@ -2601,13 +2601,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36">
         <v>121</v>
@@ -2615,13 +2615,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -2629,13 +2629,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2643,13 +2643,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39">
         <v>89</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
         <v>164</v>
-      </c>
-      <c r="C40" t="s">
-        <v>165</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -2671,13 +2671,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2685,13 +2685,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -2699,13 +2699,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43">
         <v>17</v>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45">
         <v>39</v>
@@ -2741,13 +2741,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46">
         <v>125</v>
@@ -2755,13 +2755,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47">
         <v>21</v>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D48">
         <v>14</v>
@@ -2783,13 +2783,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <v>184</v>
@@ -2797,13 +2797,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50">
         <v>46</v>
@@ -2811,13 +2811,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -2825,13 +2825,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D52">
         <v>11</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53">
         <v>22</v>
@@ -2853,13 +2853,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54">
         <v>139</v>
@@ -2867,13 +2867,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D56">
         <v>25</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D57">
         <v>38</v>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
         <v>240</v>
-      </c>
-      <c r="C58" t="s">
-        <v>241</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -2923,13 +2923,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59">
         <v>9</v>
@@ -2937,13 +2937,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>48</v>
@@ -2951,13 +2951,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61">
         <v>17</v>
@@ -2965,13 +2965,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62">
         <v>45</v>
@@ -2979,13 +2979,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63">
         <v>155</v>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3007,13 +3007,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65">
         <v>56</v>
@@ -3021,13 +3021,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D66">
         <v>136</v>
@@ -3035,13 +3035,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D67">
         <v>209</v>
@@ -3049,13 +3049,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D68">
         <v>22</v>
@@ -3063,13 +3063,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D69">
         <v>28</v>
@@ -3077,13 +3077,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D70">
         <v>86</v>
@@ -3091,13 +3091,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" t="s">
         <v>54</v>
-      </c>
-      <c r="C71" t="s">
-        <v>55</v>
       </c>
       <c r="D71">
         <v>77</v>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D72">
         <v>580</v>
@@ -3119,13 +3119,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D74">
         <v>7</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75">
         <v>50</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -3175,13 +3175,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -3189,13 +3189,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D78">
         <v>44</v>
@@ -3203,13 +3203,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D79">
         <v>34</v>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80">
         <v>42</v>
@@ -3231,13 +3231,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81">
         <v>10</v>
@@ -3245,13 +3245,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D82">
         <v>63</v>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D83">
         <v>54</v>
@@ -3273,13 +3273,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84">
         <v>25</v>
@@ -3287,13 +3287,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85">
         <v>36</v>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86">
         <v>112</v>
@@ -3315,13 +3315,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87">
         <v>61</v>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88">
         <v>291</v>
@@ -3343,13 +3343,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D89">
         <v>45</v>
@@ -3357,13 +3357,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90">
         <v>19</v>
@@ -3371,13 +3371,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <v>17</v>
@@ -3399,13 +3399,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" t="s">
         <v>134</v>
-      </c>
-      <c r="C93" t="s">
-        <v>135</v>
       </c>
       <c r="D93">
         <v>35</v>
@@ -3413,13 +3413,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D94">
         <v>21</v>
@@ -3427,13 +3427,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D96">
         <v>21</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D97">
         <v>31</v>
@@ -3469,13 +3469,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -3483,13 +3483,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D99">
         <v>13</v>
@@ -3497,13 +3497,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D100">
         <v>19</v>
@@ -3511,13 +3511,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D101">
         <v>207</v>
@@ -3525,13 +3525,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D102">
         <v>13</v>
@@ -3539,13 +3539,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3567,13 +3567,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -3581,13 +3581,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -3595,13 +3595,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C107" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -3609,13 +3609,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -3623,13 +3623,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D109">
         <v>25</v>
@@ -3637,13 +3637,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D110">
         <v>7</v>
@@ -3651,13 +3651,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111">
         <v>28</v>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" t="s">
         <v>221</v>
-      </c>
-      <c r="C112" t="s">
-        <v>222</v>
       </c>
       <c r="D112">
         <v>18</v>
@@ -3679,13 +3679,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D113">
         <v>103</v>
@@ -3693,13 +3693,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D114">
         <v>15</v>
@@ -3707,13 +3707,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D115">
         <v>88</v>
@@ -3721,13 +3721,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116">
         <v>90</v>
@@ -3735,13 +3735,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D117">
         <v>26</v>
@@ -3749,13 +3749,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D118">
         <v>322</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D119">
         <v>374</v>
@@ -3777,13 +3777,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3791,13 +3791,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121">
         <v>186</v>
@@ -3805,13 +3805,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D122">
         <v>157</v>
@@ -3819,13 +3819,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D123">
         <v>8</v>
@@ -3833,13 +3833,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" t="s">
         <v>95</v>
-      </c>
-      <c r="C124" t="s">
-        <v>96</v>
       </c>
       <c r="D124">
         <v>223</v>
@@ -3847,13 +3847,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3861,13 +3861,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D126">
         <v>25</v>
@@ -3875,13 +3875,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D127">
         <v>47</v>
@@ -3889,13 +3889,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C128" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D128">
         <v>40</v>
@@ -3903,13 +3903,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D129">
         <v>12</v>
@@ -3917,13 +3917,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3931,13 +3931,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" t="s">
         <v>40</v>
-      </c>
-      <c r="C131" t="s">
-        <v>41</v>
       </c>
       <c r="D131">
         <v>140</v>
@@ -3945,13 +3945,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D132">
         <v>56</v>
@@ -3959,13 +3959,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D133">
         <v>35</v>
@@ -3973,13 +3973,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D134">
         <v>263</v>
@@ -3987,13 +3987,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D135">
         <v>126</v>
@@ -4001,13 +4001,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D136">
         <v>114</v>
@@ -4015,13 +4015,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D137">
         <v>41</v>
@@ -4029,13 +4029,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D138">
         <v>238</v>
@@ -4043,13 +4043,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
         <v>6</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
       <c r="C139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D139">
         <v>9</v>
@@ -4057,13 +4057,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
         <v>6</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
       <c r="C140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
         <v>6</v>
       </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
       <c r="C141" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4085,13 +4085,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
         <v>6</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>7</v>
-      </c>
-      <c r="C142" t="s">
-        <v>8</v>
       </c>
       <c r="D142">
         <v>200</v>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
         <v>6</v>
       </c>
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
       <c r="C143" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -4113,13 +4113,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D144">
         <v>20</v>
@@ -4127,13 +4127,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D145">
         <v>53</v>
@@ -4141,13 +4141,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D146">
         <v>45</v>
@@ -4155,13 +4155,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D147">
         <v>176</v>
@@ -4169,13 +4169,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D148">
         <v>7</v>
@@ -4183,13 +4183,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -4197,13 +4197,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D150">
         <v>12</v>
@@ -4211,13 +4211,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C151" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D151">
         <v>60</v>
@@ -4225,13 +4225,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D152">
         <v>10</v>
@@ -4239,13 +4239,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -4253,13 +4253,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D154">
         <v>27</v>
@@ -4267,13 +4267,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D155">
         <v>20</v>
@@ -4281,13 +4281,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D156">
         <v>22</v>
@@ -4295,13 +4295,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C157" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -4309,13 +4309,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C158" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -4323,13 +4323,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D159">
         <v>13</v>
@@ -4337,13 +4337,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D160">
         <v>394</v>
@@ -4351,13 +4351,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
+        <v>187</v>
+      </c>
+      <c r="C161" t="s">
         <v>188</v>
-      </c>
-      <c r="C161" t="s">
-        <v>189</v>
       </c>
       <c r="D161">
         <v>52</v>
@@ -4365,13 +4365,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C162" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D162">
         <v>89</v>
@@ -4379,13 +4379,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C163" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -4393,13 +4393,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C164" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D164">
         <v>12</v>
@@ -4407,13 +4407,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D165">
         <v>128</v>
@@ -4421,13 +4421,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D166">
         <v>14</v>
@@ -4435,13 +4435,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D167">
         <v>25</v>
@@ -4449,13 +4449,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C168" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D168">
         <v>13</v>
@@ -4463,13 +4463,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C169" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D169">
         <v>449</v>
@@ -4477,13 +4477,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C170" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -4491,13 +4491,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C171" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D171">
         <v>13</v>
@@ -4505,13 +4505,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C172" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D172">
         <v>40</v>
@@ -4519,13 +4519,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D173">
         <v>65</v>
@@ -4533,13 +4533,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D174">
         <v>11</v>
@@ -4547,13 +4547,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D175">
         <v>237</v>
@@ -4561,13 +4561,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C176" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D176">
         <v>14</v>
@@ -4575,13 +4575,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C177" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -4589,13 +4589,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C178" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D178">
         <v>20</v>
@@ -4603,13 +4603,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D179">
         <v>104</v>
@@ -4617,13 +4617,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D180">
         <v>5</v>
@@ -4631,13 +4631,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
         <v>180</v>
-      </c>
-      <c r="C181" t="s">
-        <v>181</v>
       </c>
       <c r="D181">
         <v>19</v>
@@ -4645,13 +4645,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D182">
         <v>8</v>
@@ -4659,13 +4659,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
         <v>11</v>
       </c>
-      <c r="B183" t="s">
-        <v>12</v>
-      </c>
       <c r="C183" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D183">
         <v>22</v>
@@ -4673,13 +4673,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
         <v>11</v>
       </c>
-      <c r="B184" t="s">
-        <v>12</v>
-      </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" t="s">
         <v>11</v>
       </c>
-      <c r="B185" t="s">
-        <v>12</v>
-      </c>
       <c r="C185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185">
         <v>1108</v>
@@ -4701,13 +4701,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
         <v>11</v>
       </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
       <c r="C186" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D186">
         <v>10</v>
@@ -4715,13 +4715,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
         <v>11</v>
       </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
       <c r="C187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D187">
         <v>40</v>
@@ -4729,13 +4729,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C188" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D188">
         <v>9</v>
@@ -4743,13 +4743,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C189" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D189">
         <v>8</v>
@@ -4757,13 +4757,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C190" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D190">
         <v>17</v>
@@ -4771,13 +4771,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
+        <v>345</v>
+      </c>
+      <c r="C191" t="s">
         <v>346</v>
-      </c>
-      <c r="C191" t="s">
-        <v>347</v>
       </c>
       <c r="D191">
         <v>6</v>
@@ -4785,13 +4785,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C192" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D192">
         <v>7</v>
@@ -4799,13 +4799,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C193" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D193">
         <v>22</v>
@@ -4813,13 +4813,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D194">
         <v>368</v>
@@ -4827,13 +4827,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C195" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D195">
         <v>64</v>
@@ -4841,13 +4841,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C196" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D196">
         <v>22</v>
@@ -4855,13 +4855,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D197">
         <v>81</v>
@@ -4869,13 +4869,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C198" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D198">
         <v>25</v>
@@ -4883,13 +4883,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C199" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D199">
         <v>12</v>
@@ -4897,13 +4897,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C200" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D200">
         <v>46</v>
@@ -4911,13 +4911,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C201" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D201">
         <v>23</v>
@@ -4925,13 +4925,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C202" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D202">
         <v>7</v>
@@ -4939,13 +4939,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D203">
         <v>11</v>
@@ -4953,13 +4953,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C204" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D204">
         <v>257</v>
@@ -4967,13 +4967,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C205" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D205">
         <v>83</v>
@@ -4981,13 +4981,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C206" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D206">
         <v>36</v>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C207" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D207">
         <v>52</v>
@@ -5009,13 +5009,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C208" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D208">
         <v>17</v>
@@ -5023,13 +5023,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C209" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D209">
         <v>6</v>
@@ -5037,13 +5037,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C210" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D210">
         <v>13</v>
@@ -5051,13 +5051,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C211" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -5065,13 +5065,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C212" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D212">
         <v>8</v>
@@ -5079,13 +5079,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D213">
         <v>109</v>
@@ -5093,13 +5093,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D214">
         <v>15</v>
@@ -5107,13 +5107,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C215" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D215">
         <v>59</v>
@@ -5121,13 +5121,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C216" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D216">
         <v>43</v>
@@ -5135,13 +5135,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C217" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D217">
         <v>25</v>
@@ -5149,13 +5149,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D218">
         <v>50</v>
@@ -5163,13 +5163,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C219" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D219">
         <v>24</v>
@@ -5177,13 +5177,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D220">
         <v>42</v>
@@ -5191,13 +5191,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C221" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D221">
         <v>72</v>
@@ -5205,13 +5205,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
+        <v>125</v>
+      </c>
+      <c r="C222" t="s">
         <v>126</v>
-      </c>
-      <c r="C222" t="s">
-        <v>127</v>
       </c>
       <c r="D222">
         <v>73</v>
@@ -5219,13 +5219,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C223" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D223">
         <v>104</v>
@@ -5233,13 +5233,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C224" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D224">
         <v>10</v>
@@ -5247,13 +5247,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
+        <v>135</v>
+      </c>
+      <c r="C225" t="s">
         <v>136</v>
-      </c>
-      <c r="C225" t="s">
-        <v>137</v>
       </c>
       <c r="D225">
         <v>43</v>
@@ -5261,13 +5261,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C226" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D226">
         <v>153</v>
@@ -5275,13 +5275,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D227">
         <v>645</v>
@@ -5289,13 +5289,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D228">
         <v>174</v>
@@ -5303,13 +5303,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
         <v>9</v>
-      </c>
-      <c r="B229" t="s">
-        <v>9</v>
-      </c>
-      <c r="C229" t="s">
-        <v>10</v>
       </c>
       <c r="D229">
         <v>453</v>
@@ -5317,13 +5317,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D230">
         <v>318</v>
@@ -5331,13 +5331,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -5345,13 +5345,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D232">
         <v>6</v>
@@ -5359,13 +5359,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" t="s">
+        <v>108</v>
+      </c>
+      <c r="C233" t="s">
         <v>9</v>
-      </c>
-      <c r="B233" t="s">
-        <v>109</v>
-      </c>
-      <c r="C233" t="s">
-        <v>10</v>
       </c>
       <c r="D233">
         <v>12</v>
@@ -5373,13 +5373,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C234" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D234">
         <v>74</v>
@@ -5387,13 +5387,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D235">
         <v>26</v>
@@ -5401,13 +5401,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C236" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D236">
         <v>206</v>
@@ -5415,13 +5415,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D237">
         <v>32</v>
@@ -5429,13 +5429,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D238">
         <v>85</v>
@@ -5443,13 +5443,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D239">
         <v>51</v>
@@ -5457,13 +5457,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D240">
         <v>99</v>
@@ -5471,13 +5471,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D241">
         <v>26</v>
@@ -5485,13 +5485,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C242" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D242">
         <v>36</v>
@@ -5499,13 +5499,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B243" t="s">
+        <v>210</v>
+      </c>
+      <c r="C243" t="s">
         <v>211</v>
-      </c>
-      <c r="C243" t="s">
-        <v>212</v>
       </c>
       <c r="D243">
         <v>13</v>
@@ -5513,13 +5513,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C244" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D244">
         <v>41</v>
@@ -5527,13 +5527,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C245" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D245">
         <v>20</v>
@@ -5541,13 +5541,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C246" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D246">
         <v>68</v>
@@ -5555,13 +5555,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C247" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D247">
         <v>16</v>
@@ -5569,13 +5569,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C248" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D248">
         <v>6</v>
@@ -5583,13 +5583,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B249" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D249">
         <v>3</v>
@@ -5597,13 +5597,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C250" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D250">
         <v>40</v>
@@ -5611,13 +5611,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B251" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D251">
         <v>32</v>
@@ -5625,13 +5625,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C252" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D252">
         <v>48</v>
@@ -5639,13 +5639,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C253" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D253">
         <v>125</v>
@@ -5653,13 +5653,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B254" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C254" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D254">
         <v>35</v>
@@ -5667,13 +5667,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C255" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D255">
         <v>22</v>
@@ -5681,13 +5681,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B256" t="s">
+        <v>112</v>
+      </c>
+      <c r="C256" t="s">
         <v>113</v>
-      </c>
-      <c r="C256" t="s">
-        <v>114</v>
       </c>
       <c r="D256">
         <v>155</v>
@@ -5695,13 +5695,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C257" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D257">
         <v>61</v>
@@ -5709,13 +5709,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B258" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C258" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -5723,13 +5723,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C259" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D259">
         <v>245</v>
@@ -5737,13 +5737,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B260" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C260" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D260">
         <v>25</v>
@@ -5751,13 +5751,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B261" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C261" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D261">
         <v>178</v>
@@ -5765,13 +5765,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B262" t="s">
+        <v>96</v>
+      </c>
+      <c r="C262" t="s">
         <v>97</v>
-      </c>
-      <c r="C262" t="s">
-        <v>98</v>
       </c>
       <c r="D262">
         <v>8</v>
@@ -5779,13 +5779,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B263" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C263" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D263">
         <v>61</v>
@@ -5793,13 +5793,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B264" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C264" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D264">
         <v>80</v>
@@ -5807,13 +5807,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B265" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C265" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D265">
         <v>1176</v>
@@ -5821,13 +5821,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C266" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D266">
         <v>104</v>
@@ -5835,13 +5835,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B267" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C267" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D267">
         <v>53</v>
@@ -5849,13 +5849,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B268" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C268" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D268">
         <v>67</v>
@@ -5863,13 +5863,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C269" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D269">
         <v>152</v>
@@ -5877,13 +5877,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C270" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D270">
         <v>143</v>
@@ -5891,13 +5891,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B271" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C271" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D271">
         <v>86</v>
@@ -5905,13 +5905,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B272" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C272" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D272">
         <v>258</v>
@@ -5919,13 +5919,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B273" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C273" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D273">
         <v>11</v>
@@ -5933,13 +5933,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B274" t="s">
+        <v>82</v>
+      </c>
+      <c r="C274" t="s">
         <v>83</v>
-      </c>
-      <c r="C274" t="s">
-        <v>84</v>
       </c>
       <c r="D274">
         <v>782</v>
@@ -5947,13 +5947,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B275" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D275">
         <v>83</v>
@@ -5961,13 +5961,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B276" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C276" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D276">
         <v>140</v>
@@ -5975,13 +5975,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B277" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C277" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D277">
         <v>102</v>
@@ -5989,13 +5989,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B278" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C278" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D278">
         <v>41</v>
@@ -6003,13 +6003,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C279" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D279">
         <v>51</v>
@@ -6017,13 +6017,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B280" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C280" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D280">
         <v>24</v>
@@ -6031,13 +6031,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B281" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C281" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D281">
         <v>35</v>
@@ -6045,13 +6045,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C282" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D282">
         <v>92</v>
@@ -6059,13 +6059,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D283">
         <v>588</v>
@@ -6073,13 +6073,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B284" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C284" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D284">
         <v>41</v>
@@ -6087,13 +6087,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B285" t="s">
+        <v>103</v>
+      </c>
+      <c r="C285" t="s">
         <v>104</v>
-      </c>
-      <c r="C285" t="s">
-        <v>105</v>
       </c>
       <c r="D285">
         <v>221</v>
@@ -6101,13 +6101,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B286" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C286" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D286">
         <v>59</v>
@@ -6115,13 +6115,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B287" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C287" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D287">
         <v>5</v>
@@ -6129,13 +6129,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B288" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C288" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -6143,13 +6143,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B289" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C289" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D289">
         <v>11</v>
@@ -6157,13 +6157,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B290" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C290" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D290">
         <v>7</v>
@@ -6171,13 +6171,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D291">
         <v>209</v>
@@ -6185,13 +6185,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B292" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C292" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D292">
         <v>6</v>
@@ -6199,13 +6199,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B293" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C293" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D293">
         <v>4</v>
@@ -6213,13 +6213,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B294" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C294" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D294">
         <v>30</v>
@@ -6227,13 +6227,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B295" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D295">
         <v>26</v>
@@ -6241,13 +6241,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B296" t="s">
+        <v>56</v>
+      </c>
+      <c r="C296" t="s">
         <v>57</v>
-      </c>
-      <c r="C296" t="s">
-        <v>58</v>
       </c>
       <c r="D296">
         <v>104</v>
@@ -6255,13 +6255,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B297" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C297" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D297">
         <v>203</v>
@@ -6269,13 +6269,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B298" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C298" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D298">
         <v>34</v>
@@ -6283,13 +6283,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B299" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C299" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D299">
         <v>64</v>
@@ -6297,13 +6297,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B300" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C300" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D300">
         <v>19</v>
@@ -6311,13 +6311,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B301" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C301" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D301">
         <v>3</v>
@@ -6325,13 +6325,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B302" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C302" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D302">
         <v>4</v>
@@ -6339,13 +6339,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B303" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C303" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D303">
         <v>50</v>
@@ -6353,13 +6353,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B304" t="s">
+        <v>110</v>
+      </c>
+      <c r="C304" t="s">
         <v>111</v>
-      </c>
-      <c r="C304" t="s">
-        <v>112</v>
       </c>
       <c r="D304">
         <v>65</v>
@@ -6367,13 +6367,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B305" t="s">
+        <v>79</v>
+      </c>
+      <c r="C305" t="s">
         <v>80</v>
-      </c>
-      <c r="C305" t="s">
-        <v>81</v>
       </c>
       <c r="D305">
         <v>194</v>
@@ -6381,13 +6381,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B306" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C306" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D306">
         <v>39</v>
@@ -6395,13 +6395,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B307" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C307" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D307">
         <v>18</v>
@@ -6409,13 +6409,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B308" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C308" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D308">
         <v>62</v>
@@ -6423,13 +6423,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B309" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C309" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D309">
         <v>14</v>
@@ -6437,13 +6437,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B310" t="s">
+        <v>99</v>
+      </c>
+      <c r="C310" t="s">
         <v>100</v>
-      </c>
-      <c r="C310" t="s">
-        <v>101</v>
       </c>
       <c r="D310">
         <v>792</v>
@@ -6451,13 +6451,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B311" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C311" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D311">
         <v>139</v>
@@ -6465,13 +6465,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B312" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C312" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D312">
         <v>102</v>
@@ -6479,13 +6479,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" t="s">
         <v>160</v>
-      </c>
-      <c r="C313" t="s">
-        <v>161</v>
       </c>
       <c r="D313">
         <v>104</v>
@@ -6493,13 +6493,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B314" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C314" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D314">
         <v>40</v>
@@ -6507,13 +6507,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B315" t="s">
+        <v>141</v>
+      </c>
+      <c r="C315" t="s">
         <v>142</v>
-      </c>
-      <c r="C315" t="s">
-        <v>143</v>
       </c>
       <c r="D315">
         <v>87</v>
@@ -6521,13 +6521,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B316" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C316" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D316">
         <v>3</v>
@@ -6535,13 +6535,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B317" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C317" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D317">
         <v>91</v>
@@ -6549,13 +6549,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B318" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C318" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D318">
         <v>81</v>
@@ -6563,13 +6563,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B319" t="s">
+        <v>161</v>
+      </c>
+      <c r="C319" t="s">
         <v>162</v>
-      </c>
-      <c r="C319" t="s">
-        <v>163</v>
       </c>
       <c r="D319">
         <v>92</v>
@@ -6577,13 +6577,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B320" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C320" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D320">
         <v>96</v>
@@ -6591,13 +6591,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B321" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C321" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D321">
         <v>38</v>
@@ -6605,13 +6605,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B322" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C322" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D322">
         <v>31</v>
@@ -6619,13 +6619,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B323" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C323" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D323">
         <v>368</v>
@@ -6633,13 +6633,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B324" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C324" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D324">
         <v>94</v>
@@ -6647,13 +6647,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B325" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C325" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D325">
         <v>3</v>
@@ -6661,13 +6661,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>25</v>
+      </c>
+      <c r="B326" t="s">
+        <v>25</v>
+      </c>
+      <c r="C326" t="s">
         <v>26</v>
-      </c>
-      <c r="B326" t="s">
-        <v>26</v>
-      </c>
-      <c r="C326" t="s">
-        <v>27</v>
       </c>
       <c r="D326">
         <v>267</v>
@@ -6675,13 +6675,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B327" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C327" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D327">
         <v>247</v>
@@ -6689,13 +6689,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B328" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C328" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D328">
         <v>4</v>
@@ -6703,13 +6703,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B329" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C329" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D329">
         <v>124</v>
@@ -6717,13 +6717,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B330" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C330" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D330">
         <v>442</v>
@@ -6731,13 +6731,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C331" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D331">
         <v>264</v>
@@ -6745,13 +6745,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B332" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C332" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D332">
         <v>8</v>
@@ -6759,13 +6759,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B333" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C333" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D333">
         <v>43</v>
@@ -6773,13 +6773,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B334" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C334" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D334">
         <v>15</v>
@@ -6787,13 +6787,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B335" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D335">
         <v>74</v>
@@ -6801,13 +6801,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B336" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C336" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D336">
         <v>18</v>
@@ -6815,13 +6815,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D337">
         <v>388</v>
@@ -6829,13 +6829,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B338" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C338" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D338">
         <v>32</v>
@@ -6843,13 +6843,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B339" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C339" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D339">
         <v>857</v>
@@ -6857,13 +6857,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B340" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C340" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D340">
         <v>56</v>
@@ -6871,13 +6871,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B341" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C341" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D341">
         <v>5</v>
@@ -6885,13 +6885,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B342" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C342" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -6899,13 +6899,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B343" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C343" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D343">
         <v>21</v>
@@ -6913,13 +6913,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B344" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C344" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -6927,13 +6927,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B345" t="s">
+        <v>189</v>
+      </c>
+      <c r="C345" t="s">
         <v>190</v>
-      </c>
-      <c r="C345" t="s">
-        <v>191</v>
       </c>
       <c r="D345">
         <v>42</v>
@@ -6941,13 +6941,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>2</v>
+      </c>
+      <c r="B346" t="s">
         <v>3</v>
       </c>
-      <c r="B346" t="s">
-        <v>4</v>
-      </c>
       <c r="C346" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D346">
         <v>181</v>
@@ -6955,13 +6955,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>2</v>
+      </c>
+      <c r="B347" t="s">
         <v>3</v>
       </c>
-      <c r="B347" t="s">
-        <v>4</v>
-      </c>
       <c r="C347" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D347">
         <v>105</v>
@@ -6969,13 +6969,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>2</v>
+      </c>
+      <c r="B348" t="s">
         <v>3</v>
       </c>
-      <c r="B348" t="s">
-        <v>4</v>
-      </c>
       <c r="C348" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D348">
         <v>18</v>
@@ -6983,13 +6983,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>2</v>
+      </c>
+      <c r="B349" t="s">
         <v>3</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
         <v>4</v>
-      </c>
-      <c r="C349" t="s">
-        <v>5</v>
       </c>
       <c r="D349">
         <v>185</v>
@@ -6997,13 +6997,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>2</v>
+      </c>
+      <c r="B350" t="s">
         <v>3</v>
       </c>
-      <c r="B350" t="s">
-        <v>4</v>
-      </c>
       <c r="C350" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D350">
         <v>57</v>
@@ -7011,13 +7011,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B351" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C351" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D351">
         <v>228</v>
@@ -7025,13 +7025,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B352" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C352" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D352">
         <v>6</v>
@@ -7039,13 +7039,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C353" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D353">
         <v>4</v>
@@ -7053,13 +7053,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B354" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C354" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D354">
         <v>17</v>
@@ -7067,13 +7067,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B355" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C355" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D355">
         <v>32</v>
@@ -7081,13 +7081,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B356" t="s">
+        <v>34</v>
+      </c>
+      <c r="C356" t="s">
         <v>35</v>
-      </c>
-      <c r="C356" t="s">
-        <v>36</v>
       </c>
       <c r="D356">
         <v>24</v>
@@ -7095,13 +7095,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B357" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C357" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D357">
         <v>19</v>
@@ -7109,13 +7109,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B358" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C358" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D358">
         <v>571</v>
@@ -7123,13 +7123,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B359" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C359" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D359">
         <v>91</v>
@@ -7137,13 +7137,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B360" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C360" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D360">
         <v>47</v>
@@ -7151,13 +7151,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B361" t="s">
+        <v>18</v>
+      </c>
+      <c r="C361" t="s">
         <v>19</v>
-      </c>
-      <c r="C361" t="s">
-        <v>20</v>
       </c>
       <c r="D361">
         <v>126</v>
@@ -7165,13 +7165,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B362" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C362" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D362">
         <v>50</v>
@@ -7179,13 +7179,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B363" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C363" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D363">
         <v>576</v>
@@ -7193,13 +7193,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B364" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C364" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D364">
         <v>5</v>
@@ -7207,13 +7207,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B365" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C365" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D365">
         <v>103</v>
@@ -7221,13 +7221,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B366" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C366" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D366">
         <v>69</v>
@@ -7235,13 +7235,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B367" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C367" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D367">
         <v>71</v>
@@ -7249,13 +7249,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B368" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C368" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D368">
         <v>13</v>
@@ -7263,13 +7263,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B369" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C369" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D369">
         <v>103</v>
@@ -7277,13 +7277,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C370" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D370">
         <v>9</v>
@@ -7291,13 +7291,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B371" t="s">
+        <v>23</v>
+      </c>
+      <c r="C371" t="s">
         <v>24</v>
-      </c>
-      <c r="C371" t="s">
-        <v>25</v>
       </c>
       <c r="D371">
         <v>112</v>
@@ -7305,13 +7305,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B372" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C372" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D372">
         <v>190</v>
@@ -7319,13 +7319,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B373" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C373" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D373">
         <v>232</v>
@@ -7333,13 +7333,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B374" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C374" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D374">
         <v>114</v>
@@ -7347,13 +7347,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B375" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C375" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -7361,13 +7361,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B376" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C376" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D376">
         <v>3</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B377" t="s">
+        <v>337</v>
+      </c>
+      <c r="C377" t="s">
         <v>338</v>
-      </c>
-      <c r="C377" t="s">
-        <v>339</v>
       </c>
       <c r="D377">
         <v>40</v>
@@ -7389,13 +7389,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B378" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C378" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D378">
         <v>211</v>
@@ -7403,13 +7403,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B379" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C379" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D379">
         <v>87</v>
@@ -7417,13 +7417,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B380" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C380" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D380">
         <v>451</v>
@@ -7431,13 +7431,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B381" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C381" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D381">
         <v>150</v>
@@ -7445,13 +7445,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B382" t="s">
+        <v>13</v>
+      </c>
+      <c r="C382" t="s">
         <v>14</v>
-      </c>
-      <c r="C382" t="s">
-        <v>15</v>
       </c>
       <c r="D382">
         <v>499</v>
@@ -7459,13 +7459,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D383">
         <v>161</v>
@@ -7473,13 +7473,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C384" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D384">
         <v>49</v>
@@ -7487,13 +7487,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C385" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D385">
         <v>129</v>
@@ -7501,13 +7501,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B386" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C386" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D386">
         <v>8</v>
@@ -7515,13 +7515,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C387" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D387">
         <v>38</v>
@@ -7529,13 +7529,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B388" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C388" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D388">
         <v>10</v>
@@ -7543,13 +7543,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B389" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C389" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D389">
         <v>3</v>
@@ -7557,13 +7557,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B390" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C390" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -7571,13 +7571,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B391" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C391" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D391">
         <v>7</v>
@@ -7585,13 +7585,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B392" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C392" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D392">
         <v>69</v>
@@ -7599,13 +7599,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B393" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C393" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D393">
         <v>9</v>
@@ -7613,13 +7613,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B394" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C394" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D394">
         <v>28</v>
@@ -7627,13 +7627,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B395" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C395" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D395">
         <v>216</v>
@@ -7641,13 +7641,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B396" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396" t="s">
         <v>16</v>
-      </c>
-      <c r="C396" t="s">
-        <v>17</v>
       </c>
       <c r="D396">
         <v>813</v>
@@ -7655,13 +7655,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B397" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C397" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D397">
         <v>39</v>
@@ -7669,13 +7669,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B398" t="s">
+        <v>116</v>
+      </c>
+      <c r="C398" t="s">
         <v>117</v>
-      </c>
-      <c r="C398" t="s">
-        <v>118</v>
       </c>
       <c r="D398">
         <v>81</v>
@@ -7683,13 +7683,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B399" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C399" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D399">
         <v>25</v>
@@ -7697,13 +7697,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B400" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C400" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D400">
         <v>3</v>
@@ -7711,13 +7711,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B401" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C401" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D401">
         <v>2</v>
@@ -7725,13 +7725,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B402" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C402" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D402">
         <v>34</v>
@@ -7739,13 +7739,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B403" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C403" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D403">
         <v>69</v>
@@ -7753,13 +7753,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B404" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C404" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D404">
         <v>28</v>
@@ -7767,13 +7767,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B405" t="s">
+        <v>50</v>
+      </c>
+      <c r="C405" t="s">
         <v>51</v>
-      </c>
-      <c r="C405" t="s">
-        <v>52</v>
       </c>
       <c r="D405">
         <v>350</v>
@@ -7781,13 +7781,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B406" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C406" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D406">
         <v>19</v>
@@ -7795,13 +7795,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B407" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C407" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D407">
         <v>46</v>
@@ -7809,13 +7809,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B408" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C408" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D408">
         <v>278</v>
@@ -7823,13 +7823,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B409" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C409" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D409">
         <v>35</v>
@@ -7837,13 +7837,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B410" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C410" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D410">
         <v>15</v>
@@ -7851,13 +7851,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B411" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C411" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D411">
         <v>30</v>
@@ -7865,13 +7865,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B412" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C412" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D412">
         <v>26</v>
@@ -7879,13 +7879,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B413" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C413" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D413">
         <v>10</v>
@@ -7893,13 +7893,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B414" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C414" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D414">
         <v>29</v>
@@ -7907,13 +7907,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B415" t="s">
+        <v>20</v>
+      </c>
+      <c r="C415" t="s">
         <v>21</v>
-      </c>
-      <c r="C415" t="s">
-        <v>22</v>
       </c>
       <c r="D415">
         <v>728</v>
@@ -7921,13 +7921,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B416" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C416" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D416">
         <v>55</v>
@@ -7935,13 +7935,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B417" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C417" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D417">
         <v>23</v>
@@ -7949,13 +7949,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B418" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C418" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D418">
         <v>4</v>
@@ -7963,13 +7963,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B419" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C419" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D419">
         <v>3</v>
@@ -7977,13 +7977,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B420" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C420" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D420">
         <v>2</v>
@@ -7991,13 +7991,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B421" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C421" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D421">
         <v>3</v>
@@ -8005,13 +8005,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B422" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C422" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D422">
         <v>15</v>
@@ -8019,13 +8019,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B423" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C423" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D423">
         <v>26</v>
@@ -8033,13 +8033,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B424" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C424" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D424">
         <v>11</v>
@@ -8047,13 +8047,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B425" t="s">
+        <v>66</v>
+      </c>
+      <c r="C425" t="s">
         <v>67</v>
-      </c>
-      <c r="C425" t="s">
-        <v>68</v>
       </c>
       <c r="D425">
         <v>84</v>
@@ -8061,13 +8061,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B426" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C426" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D426">
         <v>570</v>
@@ -8075,13 +8075,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B427" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C427" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D427">
         <v>1073</v>
@@ -8089,13 +8089,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B428" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C428" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D428">
         <v>627</v>
@@ -8103,13 +8103,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B429" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C429" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D429">
         <v>1079</v>
@@ -8117,13 +8117,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B430" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C430" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D430">
         <v>448</v>
@@ -8131,13 +8131,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B431" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C431" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D431">
         <v>850</v>
@@ -8145,13 +8145,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B432" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C432" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D432">
         <v>687</v>
@@ -8159,13 +8159,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B433" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C433" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D433">
         <v>393</v>
@@ -8173,13 +8173,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B434" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C434" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D434">
         <v>549</v>
@@ -8187,13 +8187,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B435" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C435" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D435">
         <v>460</v>
@@ -8201,13 +8201,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B436" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C436" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D436">
         <v>366</v>
@@ -8215,13 +8215,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B437" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C437" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D437">
         <v>10</v>
@@ -8229,13 +8229,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B438" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C438" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D438">
         <v>40</v>
@@ -8243,13 +8243,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B439" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C439" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D439">
         <v>156</v>
@@ -8257,13 +8257,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B440" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C440" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D440">
         <v>22</v>
@@ -8271,13 +8271,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B441" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C441" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D441">
         <v>210</v>
@@ -8285,13 +8285,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B442" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C442" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D442">
         <v>32</v>
@@ -8299,13 +8299,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B443" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C443" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D443">
         <v>5</v>
@@ -8313,13 +8313,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B444" t="s">
+        <v>196</v>
+      </c>
+      <c r="C444" t="s">
         <v>197</v>
-      </c>
-      <c r="C444" t="s">
-        <v>198</v>
       </c>
       <c r="D444">
         <v>18</v>
@@ -8327,13 +8327,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B445" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C445" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D445">
         <v>146</v>
@@ -8341,13 +8341,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B446" t="s">
+        <v>71</v>
+      </c>
+      <c r="C446" t="s">
         <v>72</v>
-      </c>
-      <c r="C446" t="s">
-        <v>73</v>
       </c>
       <c r="D446">
         <v>79</v>
@@ -8355,13 +8355,13 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B447" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C447" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D447">
         <v>63</v>
@@ -8369,13 +8369,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B448" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C448" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D448">
         <v>106</v>
@@ -8383,13 +8383,13 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B449" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C449" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D449">
         <v>146</v>
@@ -8397,13 +8397,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B450" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C450" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D450">
         <v>342</v>
@@ -8411,13 +8411,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B451" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C451" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D451">
         <v>1</v>
@@ -8425,13 +8425,13 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B452" t="s">
+        <v>283</v>
+      </c>
+      <c r="C452" t="s">
         <v>284</v>
-      </c>
-      <c r="C452" t="s">
-        <v>285</v>
       </c>
       <c r="D452">
         <v>14</v>
@@ -8439,13 +8439,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B453" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C453" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D453">
         <v>3</v>
@@ -8453,13 +8453,13 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B454" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C454" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D454">
         <v>16</v>
@@ -8467,13 +8467,13 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B455" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C455" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D455">
         <v>8</v>
@@ -8481,13 +8481,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B456" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C456" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D456">
         <v>19</v>
@@ -8495,13 +8495,13 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B457" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C457" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D457">
         <v>101</v>
@@ -8509,13 +8509,13 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B458" t="s">
+        <v>45</v>
+      </c>
+      <c r="C458" t="s">
         <v>46</v>
-      </c>
-      <c r="C458" t="s">
-        <v>47</v>
       </c>
       <c r="D458">
         <v>116</v>
@@ -8523,13 +8523,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B459" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C459" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D459">
         <v>150</v>
@@ -8537,13 +8537,13 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B460" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C460" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D460">
         <v>33</v>
